--- a/uploads/wage_user/年假系统角色表 copy.xlsx
+++ b/uploads/wage_user/年假系统角色表 copy.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$61</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="197">
   <si>
     <t>互联网运营中心</t>
   </si>
@@ -703,6 +703,14 @@
   </si>
   <si>
     <t>通信建设办公室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1087,7 +1095,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1095,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1306,13 +1314,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="D15" t="s">
         <v>80</v>
@@ -1320,13 +1328,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="D16" t="s">
         <v>80</v>
@@ -1334,13 +1342,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
@@ -1348,13 +1356,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
@@ -1362,13 +1370,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -1376,13 +1384,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
@@ -1390,13 +1398,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
@@ -1404,13 +1412,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
         <v>80</v>
@@ -1418,13 +1426,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
@@ -1432,13 +1440,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
@@ -1446,13 +1454,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
         <v>80</v>
@@ -1460,41 +1468,41 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
         <v>81</v>
@@ -1502,13 +1510,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
         <v>81</v>
@@ -1516,13 +1524,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
         <v>81</v>
@@ -1530,13 +1538,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
         <v>81</v>
@@ -1544,27 +1552,27 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="D32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="1" customFormat="1">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
         <v>81</v>
@@ -1572,27 +1580,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" s="1" customFormat="1">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="D35" t="s">
         <v>81</v>
@@ -1600,13 +1608,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D36" t="s">
         <v>81</v>
@@ -1614,13 +1622,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -1628,13 +1636,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
         <v>81</v>
@@ -1642,13 +1650,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
         <v>81</v>
@@ -1656,13 +1664,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
         <v>81</v>
@@ -1670,13 +1678,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="D41" t="s">
         <v>81</v>
@@ -1684,13 +1692,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D42" t="s">
         <v>81</v>
@@ -1698,13 +1706,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
         <v>81</v>
@@ -1712,13 +1720,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D44" t="s">
         <v>81</v>
@@ -1726,13 +1734,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s">
         <v>81</v>
@@ -1740,13 +1748,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="D46" t="s">
         <v>81</v>
@@ -1754,13 +1762,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
         <v>81</v>
@@ -1768,13 +1776,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -1782,13 +1790,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D49" t="s">
         <v>81</v>
@@ -1796,13 +1804,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D50" t="s">
         <v>81</v>
@@ -1810,13 +1818,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s">
         <v>81</v>
@@ -1824,13 +1832,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D52" t="s">
         <v>81</v>
@@ -1838,13 +1846,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D53" t="s">
         <v>81</v>
@@ -1852,13 +1860,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D54" t="s">
         <v>81</v>
@@ -1866,13 +1874,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s">
         <v>81</v>
@@ -1880,13 +1888,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D56" t="s">
         <v>81</v>
@@ -1894,13 +1902,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D57" t="s">
         <v>81</v>
@@ -1908,69 +1916,69 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D62" t="s">
         <v>88</v>
@@ -1978,13 +1986,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
         <v>88</v>
@@ -1992,20 +2000,76 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D64" t="s">
         <v>88</v>
       </c>
     </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D57"/>
+  <autoFilter ref="A1:D61"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
